--- a/data/pca/factorExposure/factorExposure_2013-07-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002096731801101181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001392367039186616</v>
+      </c>
+      <c r="C2">
+        <v>0.03224327315896412</v>
+      </c>
+      <c r="D2">
+        <v>-0.004776763285264061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002813951291182357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005984068545659153</v>
+      </c>
+      <c r="C4">
+        <v>0.08303242876222734</v>
+      </c>
+      <c r="D4">
+        <v>-0.07994727449283018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003907173246026525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01339753795464092</v>
+      </c>
+      <c r="C6">
+        <v>0.1055607518308663</v>
+      </c>
+      <c r="D6">
+        <v>-0.04124021750804677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001370214132876981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004896564372156725</v>
+      </c>
+      <c r="C7">
+        <v>0.05173448572861688</v>
+      </c>
+      <c r="D7">
+        <v>-0.03972562745015128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002768869068475515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006070068041613886</v>
+      </c>
+      <c r="C8">
+        <v>0.0386433358276111</v>
+      </c>
+      <c r="D8">
+        <v>-0.04006362370487513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005863852581536841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003895013324028334</v>
+      </c>
+      <c r="C9">
+        <v>0.06704529291255942</v>
+      </c>
+      <c r="D9">
+        <v>-0.06980214102913367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004533782952169701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006311735210423104</v>
+      </c>
+      <c r="C10">
+        <v>0.08985351495357843</v>
+      </c>
+      <c r="D10">
+        <v>0.2171105971461512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.00596438476911744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004903409283256297</v>
+      </c>
+      <c r="C11">
+        <v>0.07818731747500388</v>
+      </c>
+      <c r="D11">
+        <v>-0.06516386516963155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001013532557482545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003739782560121334</v>
+      </c>
+      <c r="C12">
+        <v>0.06219066657621676</v>
+      </c>
+      <c r="D12">
+        <v>-0.04667160438291856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.00267505591893556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008388741814782814</v>
+      </c>
+      <c r="C13">
+        <v>0.06783555733072619</v>
+      </c>
+      <c r="D13">
+        <v>-0.078636095547331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003898962366757843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001938488317788765</v>
+      </c>
+      <c r="C14">
+        <v>0.04715893511505487</v>
+      </c>
+      <c r="D14">
+        <v>-0.01601945161809342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003274975338618651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005967363836776614</v>
+      </c>
+      <c r="C15">
+        <v>0.03752573600604631</v>
+      </c>
+      <c r="D15">
+        <v>-0.0462656431590614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003667290763858356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004967969427492848</v>
+      </c>
+      <c r="C16">
+        <v>0.06369529926330579</v>
+      </c>
+      <c r="D16">
+        <v>-0.0504081934441641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001440134209189873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009187592551106814</v>
+      </c>
+      <c r="C20">
+        <v>0.06492474008842496</v>
+      </c>
+      <c r="D20">
+        <v>-0.05706278444177264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003160966463450695</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009549309896296192</v>
+      </c>
+      <c r="C21">
+        <v>0.02493060662523256</v>
+      </c>
+      <c r="D21">
+        <v>-0.03751339589742429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01651981648467374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007989483088653803</v>
+      </c>
+      <c r="C22">
+        <v>0.08478713059445886</v>
+      </c>
+      <c r="D22">
+        <v>-0.1045771694908638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.016781830319207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007745760444071309</v>
+      </c>
+      <c r="C23">
+        <v>0.08735945256203602</v>
+      </c>
+      <c r="D23">
+        <v>-0.1018497220379461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004554509215577472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004479984800595043</v>
+      </c>
+      <c r="C24">
+        <v>0.07135176655268415</v>
+      </c>
+      <c r="D24">
+        <v>-0.05921161598026063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005672076525257633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002860362276591557</v>
+      </c>
+      <c r="C25">
+        <v>0.07622871859270397</v>
+      </c>
+      <c r="D25">
+        <v>-0.0633957501201194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00705080082016252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003631830642778396</v>
+      </c>
+      <c r="C26">
+        <v>0.04331879323276942</v>
+      </c>
+      <c r="D26">
+        <v>-0.01792856082396222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005457690568547322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0006753215864958819</v>
+      </c>
+      <c r="C28">
+        <v>0.1393271479935439</v>
+      </c>
+      <c r="D28">
+        <v>0.3001943044830805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001678506633007042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003503034333907485</v>
+      </c>
+      <c r="C29">
+        <v>0.05019204522056672</v>
+      </c>
+      <c r="D29">
+        <v>-0.02184336546963626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005641166715834958</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009183142662545407</v>
+      </c>
+      <c r="C30">
+        <v>0.1323123020912188</v>
+      </c>
+      <c r="D30">
+        <v>-0.1138171932145427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001379038215438654</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006116768222567429</v>
+      </c>
+      <c r="C31">
+        <v>0.04693703093328697</v>
+      </c>
+      <c r="D31">
+        <v>-0.03783545786288209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005017892433131024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00351144586427488</v>
+      </c>
+      <c r="C32">
+        <v>0.04125989470952483</v>
+      </c>
+      <c r="D32">
+        <v>-0.0171716200739297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004581121820760995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007817915434080714</v>
+      </c>
+      <c r="C33">
+        <v>0.0812799823708544</v>
+      </c>
+      <c r="D33">
+        <v>-0.07636213462685669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005999100906535952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003659661472925725</v>
+      </c>
+      <c r="C34">
+        <v>0.05595889430069589</v>
+      </c>
+      <c r="D34">
+        <v>-0.04350890565557435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004297652804110799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005128218788423363</v>
+      </c>
+      <c r="C35">
+        <v>0.03933388151417866</v>
+      </c>
+      <c r="D35">
+        <v>-0.02022022719838656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005531110730184664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001343772940832439</v>
+      </c>
+      <c r="C36">
+        <v>0.02727754299911661</v>
+      </c>
+      <c r="D36">
+        <v>-0.01656891632653968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00224004769446036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00914951011580319</v>
+      </c>
+      <c r="C38">
+        <v>0.03543247275357902</v>
+      </c>
+      <c r="D38">
+        <v>-0.03141347421706375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01580497739776573</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.00129303536127736</v>
+      </c>
+      <c r="C39">
+        <v>0.1107916197778227</v>
+      </c>
+      <c r="D39">
+        <v>-0.08701708835382584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008482352206360396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002569458049269204</v>
+      </c>
+      <c r="C40">
+        <v>0.0842437644514243</v>
+      </c>
+      <c r="D40">
+        <v>-0.03557112371739643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>4.828485662015814e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.00749790483135897</v>
+      </c>
+      <c r="C41">
+        <v>0.0416067044592808</v>
+      </c>
+      <c r="D41">
+        <v>-0.03515514869519985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002121375597260661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00279284821869602</v>
+      </c>
+      <c r="C43">
+        <v>0.05208606476981468</v>
+      </c>
+      <c r="D43">
+        <v>-0.02739665132671901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005300398152862023</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003427257730097834</v>
+      </c>
+      <c r="C44">
+        <v>0.1048031316854915</v>
+      </c>
+      <c r="D44">
+        <v>-0.08370778193904074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002379254427942401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002624210941570292</v>
+      </c>
+      <c r="C46">
+        <v>0.03410208091621354</v>
+      </c>
+      <c r="D46">
+        <v>-0.03469903746212463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002677669012449181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003029787076063574</v>
+      </c>
+      <c r="C47">
+        <v>0.04131587183272792</v>
+      </c>
+      <c r="D47">
+        <v>-0.03031247399330613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003679436707698843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006572612253522581</v>
+      </c>
+      <c r="C48">
+        <v>0.03252953095882094</v>
+      </c>
+      <c r="D48">
+        <v>-0.02299890100945231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01639724432716072</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01397637958293268</v>
+      </c>
+      <c r="C49">
+        <v>0.1642297093643923</v>
+      </c>
+      <c r="D49">
+        <v>-0.04486258365578124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003571397081311291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003935384678229802</v>
+      </c>
+      <c r="C50">
+        <v>0.04326237048433065</v>
+      </c>
+      <c r="D50">
+        <v>-0.03881224492969772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002587622856131909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004160910080978793</v>
+      </c>
+      <c r="C51">
+        <v>0.02031723249533188</v>
+      </c>
+      <c r="D51">
+        <v>-0.03576281257587435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001976666331837806</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01973766229946841</v>
+      </c>
+      <c r="C53">
+        <v>0.162192295940806</v>
+      </c>
+      <c r="D53">
+        <v>-0.05950367530405175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001361724380654199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008505271057124618</v>
+      </c>
+      <c r="C54">
+        <v>0.05395773925288351</v>
+      </c>
+      <c r="D54">
+        <v>-0.04184406057864565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006063105135656395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009427585255509918</v>
+      </c>
+      <c r="C55">
+        <v>0.103417554219439</v>
+      </c>
+      <c r="D55">
+        <v>-0.05768197548142237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001238338936738477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01861598940936439</v>
+      </c>
+      <c r="C56">
+        <v>0.1670267824543952</v>
+      </c>
+      <c r="D56">
+        <v>-0.06142474065034922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009053655388168824</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01943640027864611</v>
+      </c>
+      <c r="C58">
+        <v>0.0993494200334519</v>
+      </c>
+      <c r="D58">
+        <v>-0.08348128542494444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009346726116468893</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009423747437773465</v>
+      </c>
+      <c r="C59">
+        <v>0.1792949966565295</v>
+      </c>
+      <c r="D59">
+        <v>0.2647163047056218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008994303089818113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02268681164480492</v>
+      </c>
+      <c r="C60">
+        <v>0.2213393625856232</v>
+      </c>
+      <c r="D60">
+        <v>-0.0325137115151341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01806200663697727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002231093477685134</v>
+      </c>
+      <c r="C61">
+        <v>0.09273066221252449</v>
+      </c>
+      <c r="D61">
+        <v>-0.06621211952156159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889189583889052</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449749745444808</v>
+      </c>
+      <c r="C62">
+        <v>0.06814243965852404</v>
+      </c>
+      <c r="D62">
+        <v>-0.05630038263867451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003037410722830576</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006384368243442295</v>
+      </c>
+      <c r="C63">
+        <v>0.06015612588273662</v>
+      </c>
+      <c r="D63">
+        <v>-0.01962132967543656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00634920760102515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01541116709197603</v>
+      </c>
+      <c r="C64">
+        <v>0.09637716957615555</v>
+      </c>
+      <c r="D64">
+        <v>-0.07219915532163136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0004579283913818076</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01720759604437787</v>
+      </c>
+      <c r="C65">
+        <v>0.1101554032105002</v>
+      </c>
+      <c r="D65">
+        <v>-0.03959567444604353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01238563494469461</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01193412224657974</v>
+      </c>
+      <c r="C66">
+        <v>0.1465749141486194</v>
+      </c>
+      <c r="D66">
+        <v>-0.1261602643840562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001784139945921531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01503452517580974</v>
+      </c>
+      <c r="C67">
+        <v>0.06376796410511422</v>
+      </c>
+      <c r="D67">
+        <v>-0.04324766844509009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.00918287371303121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001737786367044059</v>
+      </c>
+      <c r="C68">
+        <v>0.1222271259144208</v>
+      </c>
+      <c r="D68">
+        <v>0.266893092421788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003401453363150848</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005138514671729067</v>
+      </c>
+      <c r="C69">
+        <v>0.0456284358285533</v>
+      </c>
+      <c r="D69">
+        <v>-0.04541065973562188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001295431090808071</v>
+      </c>
+      <c r="C70">
+        <v>0.001667672448791052</v>
+      </c>
+      <c r="D70">
+        <v>-0.001681170915364034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004415104625062582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006702148098062355</v>
+      </c>
+      <c r="C71">
+        <v>0.126259369007156</v>
+      </c>
+      <c r="D71">
+        <v>0.2796395369263289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008694947621814737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01507198351581819</v>
+      </c>
+      <c r="C72">
+        <v>0.1468659739418577</v>
+      </c>
+      <c r="D72">
+        <v>-0.03781654757551915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01444614004961098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03068804291503062</v>
+      </c>
+      <c r="C73">
+        <v>0.2825265412911782</v>
+      </c>
+      <c r="D73">
+        <v>-0.05456920033123794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005905332415159515</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001723914195129514</v>
+      </c>
+      <c r="C74">
+        <v>0.1014081680762674</v>
+      </c>
+      <c r="D74">
+        <v>-0.04866922293285041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006839272219625909</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01027606742999188</v>
+      </c>
+      <c r="C75">
+        <v>0.1304635886610756</v>
+      </c>
+      <c r="D75">
+        <v>-0.04844983293393345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01041771149886847</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0209177958406129</v>
+      </c>
+      <c r="C76">
+        <v>0.1410425654964745</v>
+      </c>
+      <c r="D76">
+        <v>-0.07755981907322788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008486093067458655</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02171092259946815</v>
+      </c>
+      <c r="C77">
+        <v>0.1169482661546171</v>
+      </c>
+      <c r="D77">
+        <v>-0.119455991128818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0006286293308609633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01444654202958158</v>
+      </c>
+      <c r="C78">
+        <v>0.08934610043986219</v>
+      </c>
+      <c r="D78">
+        <v>-0.06853450811878599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02626924614513608</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03623741726818561</v>
+      </c>
+      <c r="C79">
+        <v>0.1516571126419965</v>
+      </c>
+      <c r="D79">
+        <v>-0.04424540482163272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003238234433782534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01083416604612067</v>
+      </c>
+      <c r="C80">
+        <v>0.04392871581546946</v>
+      </c>
+      <c r="D80">
+        <v>-0.02914974767247061</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001000764023166459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01431246084022544</v>
+      </c>
+      <c r="C81">
+        <v>0.1178850097288204</v>
+      </c>
+      <c r="D81">
+        <v>-0.06700813802232571</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006198263103326762</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01807927826888895</v>
+      </c>
+      <c r="C82">
+        <v>0.1364264074718064</v>
+      </c>
+      <c r="D82">
+        <v>-0.05289245183422828</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008471133625725274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009572556724743714</v>
+      </c>
+      <c r="C83">
+        <v>0.05079074056324256</v>
+      </c>
+      <c r="D83">
+        <v>-0.049398251474499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01360612245347895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01233957342903897</v>
+      </c>
+      <c r="C84">
+        <v>0.03082384077317853</v>
+      </c>
+      <c r="D84">
+        <v>-0.004356582445709349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01627460889613142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02834136271039266</v>
+      </c>
+      <c r="C85">
+        <v>0.1271146136274776</v>
+      </c>
+      <c r="D85">
+        <v>-0.0629696863981183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003731500860533931</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004800425894794018</v>
+      </c>
+      <c r="C86">
+        <v>0.04773164397340471</v>
+      </c>
+      <c r="D86">
+        <v>-0.02270290253929308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008187922108006436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009903109791357263</v>
+      </c>
+      <c r="C87">
+        <v>0.1222834878199651</v>
+      </c>
+      <c r="D87">
+        <v>-0.08162344347528935</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01479348757437812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003162154052041883</v>
+      </c>
+      <c r="C88">
+        <v>0.07304304004758136</v>
+      </c>
+      <c r="D88">
+        <v>-0.01830232703254011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01545502474670607</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001473504461304678</v>
+      </c>
+      <c r="C89">
+        <v>0.1762685713530765</v>
+      </c>
+      <c r="D89">
+        <v>0.3263100232717199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002322396858398062</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.008003507440010549</v>
+      </c>
+      <c r="C90">
+        <v>0.1588757829618026</v>
+      </c>
+      <c r="D90">
+        <v>0.3166573309624556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006128813605633346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009751223868542658</v>
+      </c>
+      <c r="C91">
+        <v>0.1018590184620992</v>
+      </c>
+      <c r="D91">
+        <v>-0.0240066690608766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01851909622939891</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.00148575055195754</v>
+      </c>
+      <c r="C92">
+        <v>0.1646873998524788</v>
+      </c>
+      <c r="D92">
+        <v>0.3129921669778769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001895503908175372</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005416734348892021</v>
+      </c>
+      <c r="C93">
+        <v>0.1404006000680644</v>
+      </c>
+      <c r="D93">
+        <v>0.30736836918645</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0009158941185953555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02167915723282635</v>
+      </c>
+      <c r="C94">
+        <v>0.1560505810851122</v>
+      </c>
+      <c r="D94">
+        <v>-0.03900425598728079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007034441352098221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01651996781075411</v>
+      </c>
+      <c r="C95">
+        <v>0.1201595385251017</v>
+      </c>
+      <c r="D95">
+        <v>-0.06728551254631224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004616007090070789</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03225499329568744</v>
+      </c>
+      <c r="C97">
+        <v>0.1649569038112888</v>
+      </c>
+      <c r="D97">
+        <v>-0.05195702536602496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01011836259525938</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03550122477857491</v>
+      </c>
+      <c r="C98">
+        <v>0.2569705083708975</v>
+      </c>
+      <c r="D98">
+        <v>-0.04933680624901399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792009493708378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827228412140387</v>
+      </c>
+      <c r="C99">
+        <v>-0.1059296024611424</v>
+      </c>
+      <c r="D99">
+        <v>0.03629651736016815</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001630950478262248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003547488703656436</v>
+      </c>
+      <c r="C101">
+        <v>0.05027625025013333</v>
+      </c>
+      <c r="D101">
+        <v>-0.02188239155946176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
